--- a/UpdateResultWBFinds/result.xlsx
+++ b/UpdateResultWBFinds/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CF3"/>
+  <dimension ref="A1:ED3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,6 +694,256 @@
       <c r="CF1" s="1" t="n">
         <v>80</v>
       </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Greenloft</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Greenloft Link</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Макаров Г.А.</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Макаров Г.А. Link</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Маркеттрейд</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Маркеттрейд Link</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Корниенко И.Н.</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>Корниенко И.Н. Link</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>Idi-Shop</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Idi-Shop Link</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Инст54</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Инст54 Link</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Avtogen-Techno</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Avtogen-Techno Link</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Avtogen</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Avtogen Link</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Инструменты</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Инструменты Link</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Texnoplace</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Texnoplace Link</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Бонатека</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Бонатека Link</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>Гипермаркет Низких Цен</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>Гипермаркет Низких Цен Link</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>Технодон</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>Технодон Link</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>Счастливый Хозяин</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>Счастливый Хозяин Link</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>Масленников В.М.</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>Масленников В.М. Link</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>Сантехника Электрика Инструмент</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>Сантехника Электрика Инструмент Link</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>Proftoolsstore</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>Proftoolsstore Link</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>Солнечный</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>Солнечный Link</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>Power Tools Store</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>Power Tools Store Link</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>Все Инструменты</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>Все Инструменты Link</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>Весь Инструмент</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>Весь Инструмент Link</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>900 Ватт</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>900 Ватт Link</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>Vde</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>Vde Link</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>Dde</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>Dde Link</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>Маяк+</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>Маяк+ Link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -714,21 +964,81 @@
           <t xml:space="preserve">BB20-8PU PRO </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/171889725/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/211014498/detail.aspx</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/174227060/detail.aspx</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/169876986/detail.aspx</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/58196588/detail.aspx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/44054415/detail.aspx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/169878882/detail.aspx</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/208630873/detail.aspx</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/149883941/detail.aspx</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/147528237/detail.aspx</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/146492013/detail.aspx</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/257611351/detail.aspx</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/256281139/detail.aspx</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/256449465/detail.aspx</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/172615224/detail.aspx</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
@@ -794,6 +1104,144 @@
       <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="inlineStr"/>
       <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>2 780 ₽</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/171889725/detail.aspx</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>2 709 ₽</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/211014498/detail.aspx</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>7 949 ₽</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/172615224/detail.aspx</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>1 757 ₽</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/169878882/detail.aspx</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>2 709 ₽</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/208630873/detail.aspx</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>5 482 ₽</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/44054415/detail.aspx</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>7 949 ₽</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/147528237/detail.aspx</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>8 016 ₽</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/146492013/detail.aspx</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>6 540 ₽</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/257611351/detail.aspx</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>15 725 ₽</t>
+        </is>
+      </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/256281139/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>15 247 ₽</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/256449465/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr"/>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr"/>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2" t="inlineStr"/>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2" t="inlineStr"/>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2" t="inlineStr"/>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2" t="inlineStr"/>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2" t="inlineStr"/>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -814,20 +1262,76 @@
           <t>BWM-3M800</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/13400048/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/170641245/detail.aspx</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/189135506/detail.aspx</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/32954146/detail.aspx</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/145727700/detail.aspx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/179931258/detail.aspx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/217221284/detail.aspx</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/176760213/detail.aspx</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/230890347/detail.aspx</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/255411854/detail.aspx</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/144881865/detail.aspx</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/224791061/detail.aspx</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/208919392/detail.aspx</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/238572931/detail.aspx</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
@@ -894,6 +1398,168 @@
       <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>2 620 ₽</t>
+        </is>
+      </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/13400048/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>1 990 ₽</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/170641245/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>1 476 ₽</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/189135506/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>1 390 ₽</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/32954146/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>1 599 ₽</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/145727700/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>1 353 ₽</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/179931258/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>1 420 ₽</t>
+        </is>
+      </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/217221284/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>1 353 ₽</t>
+        </is>
+      </c>
+      <c r="DR3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/176760213/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>1 400 ₽</t>
+        </is>
+      </c>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/230890347/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DU3" t="inlineStr">
+        <is>
+          <t>1 400 ₽</t>
+        </is>
+      </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/255411854/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>2 239 ₽</t>
+        </is>
+      </c>
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/144881865/detail.aspx</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr">
+        <is>
+          <t>1 310 ₽</t>
+        </is>
+      </c>
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/224791061/detail.aspx</t>
+        </is>
+      </c>
+      <c r="EA3" t="inlineStr">
+        <is>
+          <t>1 533 ₽</t>
+        </is>
+      </c>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/208919392/detail.aspx</t>
+        </is>
+      </c>
+      <c r="EC3" t="inlineStr">
+        <is>
+          <t>1 599 ₽</t>
+        </is>
+      </c>
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/238572931/detail.aspx</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
